--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -388,6 +388,148 @@
   </si>
   <si>
     <t>Error messages displayed correctly</t>
+  </si>
+  <si>
+    <t>User_TC001</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions.
+1) Launch application and login as global admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.</t>
+  </si>
+  <si>
+    <t>Invitation sent successfully</t>
+  </si>
+  <si>
+    <t>User_TC003</t>
+  </si>
+  <si>
+    <t>To validate invite via email for Shipper Admin  based on following conditions
+1) Launch application and login as global admin.
+2) Click on Users Menu.
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email)
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Accet email invitation and check if invitation acceted.</t>
+  </si>
+  <si>
+    <t>Invitation accepted successfully</t>
+  </si>
+  <si>
+    <t>User_TC004</t>
+  </si>
+  <si>
+    <t>Validate Forgot password based on following conditions:
+1. Launch application and Set UserName.
+2. Clickon Forgot Password.
+3. Verify email and reset password.
+4. Login with new password.
+5. Check whether user is able to login with new password.</t>
+  </si>
+  <si>
+    <t>Password reset successfully</t>
+  </si>
+  <si>
+    <t>User_TC005</t>
+  </si>
+  <si>
+    <t>Validate delete any  user based on following conditions:
+1. Launch application .
+2. Login as global admin.
+3. Go to Users and search accepted user(except global admin)
+4. Clickon delete.
+5. Check whether deleted user exist.</t>
+  </si>
+  <si>
+    <t>User deleted successfully</t>
+  </si>
+  <si>
+    <t>User_TC006</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as global admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper user.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC007</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as shipper  admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper user.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC008</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as shipper  admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper admin.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC009</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as Carrier.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper admin.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC002</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as global admin.
+2) Click on Users Menu.
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email)
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon cancel invitation and check if invitation cancelled.</t>
+  </si>
+  <si>
+    <t>Invitation cancelled successfully</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -776,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,440 +953,584 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
+    <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F27"/>
+  <autoFilter ref="A1:F36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$37</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1425,7 @@
         <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>26</v>
@@ -1530,7 +1530,7 @@
       <c r="F37" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F36"/>
+  <autoFilter ref="A1:F37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1329,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>26</v>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -102,9 +102,6 @@
 19)Leave the chat</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>User_TC010</t>
   </si>
   <si>
@@ -527,9 +524,6 @@
   </si>
   <si>
     <t>Invitation cancelled successfully</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -920,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,176 +949,176 @@
     </row>
     <row r="2" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1137,7 +1131,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -1153,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
@@ -1163,45 +1157,45 @@
     </row>
     <row r="15" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>12</v>
@@ -1211,304 +1205,304 @@
     </row>
     <row r="18" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1521,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>13</v>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -102,6 +102,9 @@
 19)Leave the chat</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>User_TC010</t>
   </si>
   <si>
@@ -157,9 +160,6 @@
     <t>Invited Chat successfully</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Sent Chat successfully</t>
   </si>
   <si>
@@ -387,149 +387,138 @@
     <t>Error messages displayed correctly</t>
   </si>
   <si>
-    <t>User_TC001</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions.
-1) Launch application and login as global admin.
-2) Click on Users Menu and customize columns
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon Resend Invitation and Check if invitation sent again.</t>
-  </si>
-  <si>
-    <t>Invitation sent successfully</t>
-  </si>
-  <si>
-    <t>User_TC003</t>
-  </si>
-  <si>
-    <t>To validate invite via email for Shipper Admin  based on following conditions
-1) Launch application and login as global admin.
-2) Click on Users Menu.
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email)
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8.) Accet email invitation and check if invitation acceted.</t>
-  </si>
-  <si>
-    <t>Invitation accepted successfully</t>
-  </si>
-  <si>
-    <t>User_TC004</t>
-  </si>
-  <si>
-    <t>Validate Forgot password based on following conditions:
-1. Launch application and Set UserName.
-2. Clickon Forgot Password.
-3. Verify email and reset password.
-4. Login with new password.
-5. Check whether user is able to login with new password.</t>
-  </si>
-  <si>
-    <t>Password reset successfully</t>
-  </si>
-  <si>
-    <t>User_TC005</t>
-  </si>
-  <si>
-    <t>Validate delete any  user based on following conditions:
-1. Launch application .
-2. Login as global admin.
-3. Go to Users and search accepted user(except global admin)
-4. Clickon delete.
-5. Check whether deleted user exist.</t>
-  </si>
-  <si>
-    <t>User deleted successfully</t>
-  </si>
-  <si>
-    <t>User_TC006</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions
-1) Launch application and login as global admin.
-2) Click on Users Menu and customize columns
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select role shipper user.
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon Resend Invitation and Check if invitation sent again.
-9.) CLick on cancel invite and check if invitation cancelled</t>
-  </si>
-  <si>
-    <t>User_TC007</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions
-1) Launch application and login as shipper  admin.
-2) Click on Users Menu and customize columns
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select role shipper user.
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon Resend Invitation and Check if invitation sent again.
-9.) CLick on cancel invite and check if invitation cancelled</t>
-  </si>
-  <si>
-    <t>User_TC008</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions
-1) Launch application and login as shipper  admin.
-2) Click on Users Menu and customize columns
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select role shipper admin.
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon Resend Invitation and Check if invitation sent again.
-9.) CLick on cancel invite and check if invitation cancelled</t>
-  </si>
-  <si>
-    <t>User_TC009</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions
-1) Launch application and login as Carrier.
-2) Click on Users Menu and customize columns
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select role shipper admin.
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon Resend Invitation and Check if invitation sent again.
-9.) CLick on cancel invite and check if invitation cancelled</t>
-  </si>
-  <si>
-    <t>User_TC002</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions
-1) Launch application and login as global admin.
-2) Click on Users Menu.
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email)
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
-6) Select any one value from Carrier Drop Down field
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon cancel invitation and check if invitation cancelled.</t>
-  </si>
-  <si>
-    <t>Invitation cancelled successfully</t>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a.) Launch and login applcation as Carrier
+b.) Click on add new Shipper button.
+C.) Set Shipper Name, Billing Email and Carrier
+d.) click on save.
+e.) Customize Shipper webtable with required columns
+f.) Search for record and check if details dispalyed corrrect.
+g.) Set status as inactive and check whether the shipper contact is disbaled.</t>
+  </si>
+  <si>
+    <t>AddShippers_CarrierUser_TC008</t>
+  </si>
+  <si>
+    <t>EditShippers_CarrierUser_TC009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whehter Global admin is able to add new Shipper on following conditions.
+a.) Launch and login applcation as carrier
+b.) Click on add new Shipper button.
+C.) Set Shipper Name, Billing Email and Carrier
+d.) click on save.
+e.) Customize Shipper webtable with required columns
+f.) Search for record and check if details dispalyed corrrect.
+g.) Set status as inactive and check whether the shipper user is disbaled in load screen.
+</t>
+  </si>
+  <si>
+    <t>InActivateShippers_CarrierUser_TC010</t>
+  </si>
+  <si>
+    <t>ActivateShippers_CarrierUser_TC011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whehter Global admin is able to add new Shipper on following conditions.
+a.) Launch and login applcation as carrier
+b.) Click on add new Shipper button.
+C.) Set Shipper Name, Billing Email and Carrier
+d.) click on save.
+e.) Customize Shipper webtable with required columns
+f.) Search for record and check if details dispalyed corrrect.
+g.) Set status as active and check whether the shipper user isenbaled in load screen.
+</t>
+  </si>
+  <si>
+    <t>AddCarrier_InvalidDetails_001</t>
+  </si>
+  <si>
+    <t>Validate add new carrier on following conditions.
+a) Launch and login applcation as Global admin/Shipper admin/carrier.
+b) Goto carriers and click on add carrier.
+c) Set empty carrier name and search.
+d) Check error messages displayed correctly.</t>
+  </si>
+  <si>
+    <t>InviteCarrier_New_001</t>
+  </si>
+  <si>
+    <t>Validate add new carrier on following conditions.
+a) Launch and login applcation as Global admin/Shipper admin/carrier.
+b) Goto carriers and click on add carrier.
+c) Set new carrier name and search.
+d) Set all mandatory fileds and click on invite.
+E) Check whehter new carrier exists in Carrier grid.</t>
+  </si>
+  <si>
+    <t>carrier invited successfully</t>
+  </si>
+  <si>
+    <t>Validate add new carrier on following conditions.
+a) Launch and login applcation as Global admin/Shipper admin/carrier.
+b) Goto carriers and click on add carrier.
+c) Set existing carrier name and search.
+d) Set all mandatory fileds and click on invite.
+E) Check whehter carrier exists in Carrier grid.</t>
+  </si>
+  <si>
+    <t>InviteCarrier_existing_002</t>
+  </si>
+  <si>
+    <t>Verifty_CarrierRequest__004</t>
+  </si>
+  <si>
+    <t>Validate the Carrier.
+1) Login as Shipper Admin/User or Global Admin and create Company.
+2) Login as Global Admin and Accept Company.
+3) Login as Shipper Admin/User or Global Admin and send request to user.
+4) Login as Carrier and Validate the Request .</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Request verified Successfully</t>
+  </si>
+  <si>
+    <t>Cancelled Invitation Successfully</t>
+  </si>
+  <si>
+    <t>CancelInvite_Carrier__005</t>
+  </si>
+  <si>
+    <t>Validate the Carrier.
+1)Login as Shipper Admin/User or Global Admin and create Company.
+2) Search for newly created carrier and cancel invite
+3) Login as carrier and check whether request cancelled successfully</t>
+  </si>
+  <si>
+    <t>ResendlInvite_Carrier__006</t>
+  </si>
+  <si>
+    <t>Validate the Carrier.
+1)Login as Shipper Admin/User or Global Admin and create Company.
+2) Search for newly created carrier and cancel invite
+3) Login as carrier and check whether request cancelled successfully
+4) Login as shipper admin/user or Global admin
+5) search for cancelled carrier and resend invitation
+6) Login as carrier and check whether request created</t>
+  </si>
+  <si>
+    <t>Resend Invitation Successfully</t>
+  </si>
+  <si>
+    <t>AcceptlInvite_Carrier__007</t>
+  </si>
+  <si>
+    <t>Accepted Invitation Successfully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -912,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +912,7 @@
     <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -947,584 +936,615 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
+    <row r="38" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="180">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -387,16 +387,6 @@
     <t>Error messages displayed correctly</t>
   </si>
   <si>
-    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
-a.) Launch and login applcation as Carrier
-b.) Click on add new Shipper button.
-C.) Set Shipper Name, Billing Email and Carrier
-d.) click on save.
-e.) Customize Shipper webtable with required columns
-f.) Search for record and check if details dispalyed corrrect.
-g.) Set status as inactive and check whether the shipper contact is disbaled.</t>
-  </si>
-  <si>
     <t>AddShippers_CarrierUser_TC008</t>
   </si>
   <si>
@@ -476,9 +466,6 @@
 4) Login as Carrier and Validate the Request .</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Request verified Successfully</t>
   </si>
   <si>
@@ -514,11 +501,513 @@
   <si>
     <t>Accepted Invitation Successfully</t>
   </si>
+  <si>
+    <t>Validate whehter Shipper user is able to add new Deal  on following conditions.
+1) Launch application and login applcation as Shipper admin.
+2) Goto Deals and click on add icon.
+3) Set mandatory fileds and clik on next.
+4) Click on Deals and Drafts.
+5) Check whether the new deal widget added in Drafts.</t>
+  </si>
+  <si>
+    <t>Deal saved to draft</t>
+  </si>
+  <si>
+    <t>ShipperUser_CreateDeal_TC002</t>
+  </si>
+  <si>
+    <t>ShipperUser_ShareDeal_TC003</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper user is able to share new Deal  on following conditions.
+1) Login with valid user id and Password .
+2) Click on Deals menu.
+3) Click on Add New Deal button from Opportunity tab.
+4) Select Dealname,EquipmentTypes &amp; # of Loads and click Next button.
+5) Select one or more contacts(Carrier) in contact list screen and click share button.
+6) Login as Carrier user and check opportunity tab whether Deal is displayed.</t>
+  </si>
+  <si>
+    <t>Deal has been shared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a carrier user can duplicate deal in Opportunity.
+1) Enter valid user id and Password and click Login.
+2)Create deal and share with carrier user.
+3) Login as carrier user.
+4) Check shared deal in opportunity.
+5) Duplicate deal and check whehter another deal created.
+</t>
+  </si>
+  <si>
+    <t>Deal has been duplicated</t>
+  </si>
+  <si>
+    <t>ShipperUser_DuplicateDeal_TC004</t>
+  </si>
+  <si>
+    <t>ShipperUser_ReShareDeal_TC004</t>
+  </si>
+  <si>
+    <t>Deal has been Reshared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a Shipper user can withdraw deal in Opportunity.
+1) Enter valid user id and Password and click Login(Shipper user).
+2)Create deal and share with carrier user.
+3) Check shared deal in opportunity.
+4) withdraw deal and check whehter deal is displayed in withdraw tab.
+</t>
+  </si>
+  <si>
+    <t>Deal has been withdrawn</t>
+  </si>
+  <si>
+    <t>ShipperUser_WithDrawDeal_TC005</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a shipper user can edit deal in Opportunity.
+a) Enter valid user id and Password and click Login(Shipper user).
+b)Create deal and share with carrier user.
+c) Check shared deal in opportunity
+d) Edit deal and check updated details in opportunity
+</t>
+  </si>
+  <si>
+    <t>Deal has been Edited</t>
+  </si>
+  <si>
+    <t>ShipperUser_EditDeal_TC006</t>
+  </si>
+  <si>
+    <t>ShipperUser_EditDeal_TC007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a shipper user can edit deal in Draft.
+a) Enter valid user id and Password and click Login.
+b)Create deal and check in Draft.
+C) select deal and edit.
+d) check whether deal is successfully edited in Draft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate counter as deal as shipper user on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Click on Deals menu
+3) Select any deal in opportunity tab
+4) Click on any contacts from the chat listing
+5) Click on '+' button in chat channel's bottom menu
+6) Click on Counter menu
+7) Update any values and Click on the counter button
+8) Observe the updated values are displayed in chat channel
+</t>
+  </si>
+  <si>
+    <t>Deal has been countered</t>
+  </si>
+  <si>
+    <t>ShipperUser_CounterDeal_TC008</t>
+  </si>
+  <si>
+    <t>Deal has been accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate accept deal as carrier user on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal and share and counter deal with carrier
+3) login as carrier and Select deal in opportunity tab
+4) Click on any contacts from the chat listing
+5) Click on '+' button in chat channel's bottom menu
+6) Click on accept
+7) Update any values and Click on the accept button
+8) Observe the updated values are displayed in chat channel
+9) navigate to Booked tab and check deal displayed.
+</t>
+  </si>
+  <si>
+    <t>ShipperUser_AcceptDeal_TC009</t>
+  </si>
+  <si>
+    <t>Unable to negotiate deal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate negotiate deal on following conidtions:
+1) Enter valid shipper user id and Password and click Login button
+2) Click on Deals menu
+3) Click on Booked tab
+4) Click on any deal card on Booked screen
+5) Ensure the Bottom menu "+" has only Mute Option
+6) Observe the chat history and  Mute options is displayed in detailed view
+7) Ensure messaging  is allowed between shipper and carrier 
+</t>
+  </si>
+  <si>
+    <t>ShipperUser_NegotiateDeal_TC010</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate negotiate deal in withdraw tab based on following conditions:
+1) Enter valid shipper user id and Password and click Login button.
+2) Click on Deals menu.
+3) Click on withdrawn tab.
+4) Click on any card in withdrawn tab.
+5) Ensure the chat channel do not allow message &amp; menu options.
+6) Ensure the chat channel shows the history between the two participants.
+</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_CreateDeal_TC011</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper admin is able to add new Deal  on following conditions.
+1) Launch application and login applcation as Shipper admin.
+2) Goto Deals and click on add icon.
+3) Set mandatory fileds and clik on next.
+4) Click on Deals and Drafts.
+5) Check whether the new deal widget added in Drafts.</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_EditDeal_TC012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a shipper admin can edit deal in Draft.
+a) Enter valid user id and Password and click Login.
+b)Create deal and check in Draft.
+C) select deal and edit.
+d) check whether deal is successfully edited in Draft.
+</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper admin is able to share all new Deal  on following conditions.
+1) Login withvalid user id and Password.
+2) Click on Deals menu
+3) Click on Add New Deal button from Opportunity tab
+4) Select Dealname,EquipmentTypes &amp; # of Loads and click Next button
+5) Goto Drafts and check Deal widget available.
+6) Select Deal, click on three dots and click on share.
+7) Set ON Share All and click Share.
+8) Login as Carrier user and check opportunity tab whether Deal is displayed.</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_ShareAll_TC013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a shipper admin can edit deal in Opportunity.
+a) Enter valid user id and Password and click Login.
+b)Create deal and share with carrier user.
+c) Check shared deal in opportunity
+d) Edit deal and check updated details in opportunity
+</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_EditDeal_TC014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a Shipper admin user can withdraw deal in Opportunity.
+1) Enter valid user id and Password and click Login(Shipper admin).
+2)Create deal and share with all user.
+3) Check shared deal in opportunity.
+4) withdraw deal and check whehter deal is displayed in withdraw tab.
+</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_WithdrawDeal_TC015</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_CounterDeal_TC016</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_AcceptDeal_TC017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate counter as deal as shipper admin on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Click on Deals menu
+3) Select any deal with public share in opportunity tab
+4) Click on any contacts from the chat listing
+5) Click on '+' button in chat channel's bottom menu
+6) Click on Counter menu
+7) Update any values and Click on the counter button
+8) Observe the updated values are displayed in chat channel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate accept deal as carrier user on following conditions.
+1) Enter valid shipper admin id and Password and click Login button
+2) Create deal and share and counter deal with carrier
+3) login as carrier and Select deal in opportunity tab
+4) Click on any contacts from the chat listing
+5) Click on '+' button in chat channel's bottom menu
+6) Click on accept
+7) Update any values and Click on the accept button
+8) Observe the updated values are displayed in chat channel
+9) navigate to Booked tab and check deal displayed.
+</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_NegotiateDeal_TC018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate negotiate deal on following conidtions:
+1) Enter valid shipper admin id and Password and click Login button
+2) Click on Deals menu
+3) Click on Booked tab
+4) Click on any deal card on Booked screen
+5) Ensure the Bottom menu "+" has only Mute Option
+6) Observe the chat history and  Mute options is displayed in detailed view
+7) Ensure messaging  is allowed between shipper and carrier 
+</t>
+  </si>
+  <si>
+    <t>Validate whehter carrier is able to add new Deal  on following conditions.
+1) Launch application and login applcation as Shipper user.
+2) Goto Deals and click on add icon.
+3) Set mandatory fileds and clik on next.
+4) Click on Deals and Drafts.
+5) Check whether the new deal widget added in Drafts.</t>
+  </si>
+  <si>
+    <t>Carrier_CreateDeal_TC019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a carrier can edit deal in Draft.
+a) Enter valid user id and Password and click Login.
+b)Create deal and check in Draft.
+C) select deal and edit.
+d) check whether deal is successfully edited in Draft.
+</t>
+  </si>
+  <si>
+    <t>Carrier_EditDeal_TC020</t>
+  </si>
+  <si>
+    <t>Carrier_ShareAll_TC021</t>
+  </si>
+  <si>
+    <t>Validate whehter carrier is able to share all new Deal  on following conditions.
+1) Login withvalid user id and Password.
+2) Click on Deals menu
+3) Click on Add New Deal button from Opportunity tab
+4) Select Dealname,EquipmentTypes &amp; # of Loads and click Next button
+5) Goto Drafts and check Deal widget available.
+6) Select Deal, click on three dots and click on share.
+7) Set ON Share All and click Share.
+8) Login as Carrier user and check opportunity tab whether Deal is displayed.</t>
+  </si>
+  <si>
+    <t>Carrier_EditDeal_TC022</t>
+  </si>
+  <si>
+    <t>Carrier_WithdrawDeal_TC023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a carrier user can withdraw deal in Opportunity.
+1) Enter valid user id and Password and click Login(Shipper admin).
+2)Create deal and share with all user.
+3) Check shared deal in opportunity.
+4) withdraw deal and check whehter deal is displayed in withdraw tab.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a carrier can edit deal in Opportunity.
+a) Enter valid user id and Password and click Login.
+b)Create deal and share with carrier user.
+c) Check shared deal in opportunity
+d) Edit deal and check updated details in opportunity
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate counter as deal as carrier on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Click on Deals menu
+3) Select any deal in opportunity tab
+4) Click on any contacts from the chat listing
+5) Click on '+' button in chat channel's bottom menu
+6) Click on Counter menu
+7) Update any values and Click on the counter button
+8) Observe the updated values are displayed in chat channel
+</t>
+  </si>
+  <si>
+    <t>Carrier_CounterDeal_TC024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate accept deal as shipper user on following conditions.
+1) Enter valid carrier and Password and click Login button
+2) Create deal andpublic share and counter deal with shipper
+3) login as shipper and Select deal in opportunity tab
+4) Click on any contacts from the chat listing
+5) Click on '+' button in chat channel's bottom menu
+6) Click on accept
+7) Update any values and Click on the accept button
+8) Observe the updated values are displayed in chat channel
+9) navigate to Booked tab and check deal displayed.
+</t>
+  </si>
+  <si>
+    <t>Carrier_AcceptDeal_TC025</t>
+  </si>
+  <si>
+    <t>Carrier_NegotiateDeal_TC026</t>
+  </si>
+  <si>
+    <t>DateFilter_TC001</t>
+  </si>
+  <si>
+    <t>Validate date filter in opportunity for shipper user on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal with valid details and share with carrier
+3) Select date filter in opportunity and set from date and to date as current date.
+4) check whether newly created deal displayed correctly.</t>
+  </si>
+  <si>
+    <t>Deal has been filtered</t>
+  </si>
+  <si>
+    <t>DateFilter_TC002</t>
+  </si>
+  <si>
+    <t>Validate date filter in opportunity for shipper admin on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal with valid details and share with all
+3) Select date filter in opportunity and set from date and to date as current date.
+4) check whether newly created deal displayed correctly.</t>
+  </si>
+  <si>
+    <t>DateFilter_TC003</t>
+  </si>
+  <si>
+    <t>Validate date filter in opportunity for carrier on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal with valid details and share with shipper user.
+3) Select date filter in opportunity and set from date and to date as current date.
+4) check whether newly created deal displayed correctly.</t>
+  </si>
+  <si>
+    <t>LocFilter_TC001</t>
+  </si>
+  <si>
+    <t>Validate location filter in opportunity for shipper user on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal with valid details and share with carrier
+3) Select location filter in opportunity, select Outbound and set origin.
+4) View deal displayed correctly.
+5) Select location filter in opportunity, select Return and set destination.
+6) check whether newly created deal displayed correctly.
+7) Select location filter in opportunity, select Return and set destination.
+8) check whether newly created deal displayed correctly.</t>
+  </si>
+  <si>
+    <t>LocFilter_TC002</t>
+  </si>
+  <si>
+    <t>Validate location filter in opportunity for shipper admin on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal with valid details and share with carrier
+3) Select location filter in opportunity, select Outbound and set origin.
+4) View deal displayed correctly.
+5) Select location filter in opportunity, select Return and set destination.
+6) check whether newly created deal displayed correctly.
+7) Select location filter in opportunity, select Return and set destination.
+8) check whether newly created deal displayed correctly.</t>
+  </si>
+  <si>
+    <t>LocFilter_TC003</t>
+  </si>
+  <si>
+    <t>Validate location filter in opportunity for carrier on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal with valid details and share with carrier
+3) Select location filter in opportunity, select Outbound and set origin.
+4) View deal displayed correctly.
+5) Select location filter in opportunity, select Return and set destination.
+6) check whether newly created deal displayed correctly.
+7) Select location filter in opportunity, select Return and set destination.
+8) check whether newly created deal displayed correctly.</t>
+  </si>
+  <si>
+    <t>ExportDeal_TC001</t>
+  </si>
+  <si>
+    <t>Validate export deal for shipper user on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Goto deals and click on Booked tab
+3) Click Export icon and select format.
+4) Click on download and click on Export deals
+5) Check whether the correct file downloaded successfully</t>
+  </si>
+  <si>
+    <t>Deals has been exported</t>
+  </si>
+  <si>
+    <t>ExportDeal_TC002</t>
+  </si>
+  <si>
+    <t>Validate export deal as Email for shipper user on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Goto deals and click on Booked tab
+3) Click Export and set send to email
+4) set Email address and clik on export deal
+5) Check whether Email request sent successfully</t>
+  </si>
+  <si>
+    <t>Export request has been sent</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperUser_TC001</t>
+  </si>
+  <si>
+    <t>Verify the Chat feature in Deals. 1) Enter valid shipper user id and Password and click Login button.
+2) Click on Deals menu.
+3) Select any deal in opportunity tab.
+4) Click on the deal cards in the Opportunity tab.
+5) Click on the Carrier contact name in detailed view.
+6) Enter message then  Click on Send icon.
+7) Enter valid carrier user id and Password and click Login button in another  Carrier User.
+8) Click on Chat Icon.
+9) Ensure message is displayed notification in Chat window.</t>
+  </si>
+  <si>
+    <t>Chat verified Successfully</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperAdmin_TC002</t>
+  </si>
+  <si>
+    <t>Deals_Chat_CarrierUser_TC003</t>
+  </si>
+  <si>
+    <t>Validate whehter carrier is able to add new Shipper on following conditions.
+a.) Launch and login applcation as Carrier
+b.) Click on add new Shipper button.
+C.) Set Shipper Name, Billing Email and Carrier
+d.) click on save.
+e.) Customize Shipper webtable with required columns
+f.) Search for record and check if details dispalyed corrrect.
+g.) Set status as inactive and check whether the shipper contact is disbaled.</t>
+  </si>
+  <si>
+    <t>Validate whehter carrier is able to add new Shipper on following conditions.
+a.) Launch and login applcation as Carrier.
+b.) Click on add new Shipper button.
+C.) Set Shipper Name, Billing Email and Carrier
+d.) click on save.
+e.) Customize Shipper webtable with required columns
+f.) Search for record and check if details dispalyed corrrect.
+g.) Edit record and set status as inactive.
+h.) Check the shipper is inactive
+i.) Edit status as Active and create load with new shipper.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -596,6 +1085,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,10 +1558,10 @@
     </row>
     <row r="10" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -1082,10 +1574,10 @@
     </row>
     <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
@@ -1098,10 +1590,10 @@
     </row>
     <row r="12" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
@@ -1114,10 +1606,10 @@
     </row>
     <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>16</v>
@@ -1434,10 +1926,10 @@
     </row>
     <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>16</v>
@@ -1450,99 +1942,645 @@
     </row>
     <row r="34" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="200">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -566,9 +566,6 @@
     <t>ShipperUser_WithDrawDeal_TC005</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate whether a shipper user can edit deal in Opportunity.
 a) Enter valid user id and Password and click Login(Shipper user).
 b)Create deal and share with carrier user.
@@ -1002,6 +999,113 @@
 g.) Edit record and set status as inactive.
 h.) Check the shipper is inactive
 i.) Edit status as Active and create load with new shipper.</t>
+  </si>
+  <si>
+    <t>AddCommodity_TC001</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a) Launch and login applcation as Global admin
+b) Goto commodities and Click on add new commodity button.
+C) Set Commodity name, upper limit, lower limit and pounds. 
+d) click on save.
+e) Customize Commodity webtable with required columns.
+f) Search for record and check if details dispalyed corrrect.
+g) Select record and click on delete button.
+h) check whether record deleted successfully.</t>
+  </si>
+  <si>
+    <t>Commodity added and deleted successfully</t>
+  </si>
+  <si>
+    <t>EditCommodity_TC002</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a) Launch and login applcation as Global admin
+b) Goto commodities and Click on add new commodity button.
+C) Set Commodity name, upper limit, lower limit and pounds. 
+d) click on save.
+e) Customize Commodity webtable with required columns.
+f) Search for record and check if details dispalyed corrrect.
+g) Select record and edit with valid details.
+h) check whether record edited successfully.</t>
+  </si>
+  <si>
+    <t>Commodity added and edited successfully</t>
+  </si>
+  <si>
+    <t>Invalid_AddCommodity_TC001</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a) Launch and login applcation as Global admin
+b) Goto commodities and Click on add new commodity button.
+C) click on add and check whether all alerts displayed.
+D) set commodity, clik on add and check alerts.
+e) set upper limit, clik on add and check alerts.
+f) set lower limit&gt;upperlimit clik on add and check alerts.
+g) set lower limit&lt;upperlimit clik on add and check alerts.</t>
+  </si>
+  <si>
+    <t>Error messages displayed correcly</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_ShipperContacts_TC001</t>
+  </si>
+  <si>
+    <t>Invalid_ShipperContacts_TC001</t>
+  </si>
+  <si>
+    <t>Validate Shipper Contact.
+a) Launch and login applcation.
+b)Open Shipper Contact Panel.
+c) Click on add new Shipper Contact button.
+d) Fill Mandatory Details empty and click on Add.
+e) check alert messages displayed correct</t>
+  </si>
+  <si>
+    <t>Shipper Contact added Successfully</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_InactiveShipperContacts_TC002</t>
+  </si>
+  <si>
+    <t>Validate Shipper Contact.
+a) Launch and login applcation.
+b)Open Shipper Contact Panel.
+c) Click on add new Shipper Contact button.
+d) Fill Mandatory Details and click on Add.
+e) Verify Newly added Shipper contact in Grid.
+F) Check whether new load can be added using new shipper contact.</t>
+  </si>
+  <si>
+    <t>Shipper contact inactivated successfully</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_activeShipperContacts_TC003</t>
+  </si>
+  <si>
+    <t>Validate Shipper Contact.
+a) Launch and login applcation.
+b)Open Shipper Contact Panel.
+c) Selct any inactive shipper contact from grid
+d) Edit the status as Inactive
+e) Check whether Shipper Contact activated successfully in loads</t>
+  </si>
+  <si>
+    <t>Validate Shipper Contact.
+a) Launch and login applcation.
+b)Open Shipper Contact Panel.
+c) Selct any active shipper contact from grid
+d) Edit the status as Inactive
+e) Check whether Shipper Contact inactivated successfully in loads</t>
+  </si>
+  <si>
+    <t>Shipper contact activated successfully</t>
   </si>
 </sst>
 </file>
@@ -1393,18 +1497,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1561,7 +1665,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -1577,7 +1681,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
@@ -2112,94 +2216,94 @@
     </row>
     <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="C50" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>16</v>
@@ -2212,24 +2316,24 @@
     </row>
     <row r="52" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>16</v>
@@ -2242,24 +2346,24 @@
     </row>
     <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>16</v>
@@ -2272,52 +2376,52 @@
     </row>
     <row r="56" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="C58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>16</v>
@@ -2328,24 +2432,24 @@
     </row>
     <row r="60" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>16</v>
@@ -2358,24 +2462,24 @@
     </row>
     <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>16</v>
@@ -2388,198 +2492,302 @@
     </row>
     <row r="64" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="C65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="B66" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="3" t="s">
+    </row>
+    <row r="68" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="B70" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="B71" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="B72" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="C72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="B73" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="3" t="s">
+    </row>
+    <row r="74" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="B74" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="3" t="s">
+    </row>
+    <row r="75" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="3" t="s">
+    </row>
+    <row r="76" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="B76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>175</v>
+    </row>
+    <row r="78" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$92</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="219">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -102,9 +102,6 @@
 19)Leave the chat</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>User_TC010</t>
   </si>
   <si>
@@ -1106,6 +1103,127 @@
   </si>
   <si>
     <t>Shipper contact activated successfully</t>
+  </si>
+  <si>
+    <t>User_TC001</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions.
+1) Launch application and login as global admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.</t>
+  </si>
+  <si>
+    <t>Invitation sent successfully</t>
+  </si>
+  <si>
+    <t>User_TC004</t>
+  </si>
+  <si>
+    <t>Validate Forgot password based on following conditions:
+1. Launch application and Set UserName.
+2. Clickon Forgot Password.
+3. Verify email and reset password.
+4. Login with new password.
+5. Check whether user is able to login with new password.</t>
+  </si>
+  <si>
+    <t>Password reset successfully</t>
+  </si>
+  <si>
+    <t>User_TC005</t>
+  </si>
+  <si>
+    <t>Validate delete any  user based on following conditions:
+1. Launch application .
+2. Login as global admin.
+3. Go to Users and search accepted user(except global admin)
+4. Clickon delete.
+5. Check whether deleted user exist.</t>
+  </si>
+  <si>
+    <t>User deleted successfully</t>
+  </si>
+  <si>
+    <t>User_TC006</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as global admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper user.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC007</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as shipper  admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper user.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC008</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as shipper  admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper admin.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC009</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as Carrier.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper admin.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC002</t>
+  </si>
+  <si>
+    <t>To validate cancel invitation on following conditions.
+1) Launch application and login as global admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
+7) Click on cancel Invite button and check cancelled successfully.</t>
+  </si>
+  <si>
+    <t>Invitation Cancelled successfully</t>
   </si>
 </sst>
 </file>
@@ -1497,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,1265 +1650,1394 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>205</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>208</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>210</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>212</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>214</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>178</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>118</v>
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>121</v>
+        <v>100</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="B53" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C75" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="3" t="s">
+    </row>
+    <row r="76" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C76" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C77" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="B78" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C78" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="B79" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C79" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="B80" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="C80" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="B81" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C81" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="3" t="s">
+    </row>
+    <row r="82" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="B82" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C82" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="3" t="s">
+    </row>
+    <row r="83" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C83" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="3" t="s">
+    </row>
+    <row r="84" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="B84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    </row>
+    <row r="86" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C86" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C87" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C88" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C89" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B82" s="2" t="s">
+    </row>
+    <row r="91" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B83" s="2" t="s">
+    </row>
+    <row r="92" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>199</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F92"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -563,6 +563,9 @@
     <t>ShipperUser_WithDrawDeal_TC005</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Validate whether a shipper user can edit deal in Opportunity.
 a) Enter valid user id and Password and click Login(Shipper user).
 b)Create deal and share with carrier user.
@@ -998,113 +1001,6 @@
 i.) Edit status as Active and create load with new shipper.</t>
   </si>
   <si>
-    <t>AddCommodity_TC001</t>
-  </si>
-  <si>
-    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
-a) Launch and login applcation as Global admin
-b) Goto commodities and Click on add new commodity button.
-C) Set Commodity name, upper limit, lower limit and pounds. 
-d) click on save.
-e) Customize Commodity webtable with required columns.
-f) Search for record and check if details dispalyed corrrect.
-g) Select record and click on delete button.
-h) check whether record deleted successfully.</t>
-  </si>
-  <si>
-    <t>Commodity added and deleted successfully</t>
-  </si>
-  <si>
-    <t>EditCommodity_TC002</t>
-  </si>
-  <si>
-    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
-a) Launch and login applcation as Global admin
-b) Goto commodities and Click on add new commodity button.
-C) Set Commodity name, upper limit, lower limit and pounds. 
-d) click on save.
-e) Customize Commodity webtable with required columns.
-f) Search for record and check if details dispalyed corrrect.
-g) Select record and edit with valid details.
-h) check whether record edited successfully.</t>
-  </si>
-  <si>
-    <t>Commodity added and edited successfully</t>
-  </si>
-  <si>
-    <t>Invalid_AddCommodity_TC001</t>
-  </si>
-  <si>
-    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
-a) Launch and login applcation as Global admin
-b) Goto commodities and Click on add new commodity button.
-C) click on add and check whether all alerts displayed.
-D) set commodity, clik on add and check alerts.
-e) set upper limit, clik on add and check alerts.
-f) set lower limit&gt;upperlimit clik on add and check alerts.
-g) set lower limit&lt;upperlimit clik on add and check alerts.</t>
-  </si>
-  <si>
-    <t>Error messages displayed correcly</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>GlobalAdmin_ShipperContacts_TC001</t>
-  </si>
-  <si>
-    <t>Invalid_ShipperContacts_TC001</t>
-  </si>
-  <si>
-    <t>Validate Shipper Contact.
-a) Launch and login applcation.
-b)Open Shipper Contact Panel.
-c) Click on add new Shipper Contact button.
-d) Fill Mandatory Details empty and click on Add.
-e) check alert messages displayed correct</t>
-  </si>
-  <si>
-    <t>Shipper Contact added Successfully</t>
-  </si>
-  <si>
-    <t>GlobalAdmin_InactiveShipperContacts_TC002</t>
-  </si>
-  <si>
-    <t>Validate Shipper Contact.
-a) Launch and login applcation.
-b)Open Shipper Contact Panel.
-c) Click on add new Shipper Contact button.
-d) Fill Mandatory Details and click on Add.
-e) Verify Newly added Shipper contact in Grid.
-F) Check whether new load can be added using new shipper contact.</t>
-  </si>
-  <si>
-    <t>Shipper contact inactivated successfully</t>
-  </si>
-  <si>
-    <t>GlobalAdmin_activeShipperContacts_TC003</t>
-  </si>
-  <si>
-    <t>Validate Shipper Contact.
-a) Launch and login applcation.
-b)Open Shipper Contact Panel.
-c) Selct any inactive shipper contact from grid
-d) Edit the status as Inactive
-e) Check whether Shipper Contact activated successfully in loads</t>
-  </si>
-  <si>
-    <t>Validate Shipper Contact.
-a) Launch and login applcation.
-b)Open Shipper Contact Panel.
-c) Selct any active shipper contact from grid
-d) Edit the status as Inactive
-e) Check whether Shipper Contact inactivated successfully in loads</t>
-  </si>
-  <si>
-    <t>Shipper contact activated successfully</t>
-  </si>
-  <si>
     <t>User_TC001</t>
   </si>
   <si>
@@ -1120,6 +1016,22 @@
   </si>
   <si>
     <t>Invitation sent successfully</t>
+  </si>
+  <si>
+    <t>User_TC002</t>
+  </si>
+  <si>
+    <t>To validate cancel invitation on following conditions.
+1) Launch application and login as global admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
+7) Click on cancel Invite button and check cancelled successfully.</t>
+  </si>
+  <si>
+    <t>Invitation Cancelled successfully</t>
   </si>
   <si>
     <t>User_TC004</t>
@@ -1210,20 +1122,108 @@
 9.) CLick on cancel invite and check if invitation cancelled</t>
   </si>
   <si>
-    <t>User_TC002</t>
-  </si>
-  <si>
-    <t>To validate cancel invitation on following conditions.
-1) Launch application and login as global admin.
-2) Click on Users Menu and customize columns
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
-6) Select any one value from Carrier Drop Down field.
-7) Click on cancel Invite button and check cancelled successfully.</t>
-  </si>
-  <si>
-    <t>Invitation Cancelled successfully</t>
+    <t>Invalid_AddCommodity_TC001</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a) Launch and login applcation as Global admin
+b) Goto commodities and Click on add new commodity button.
+C) click on add and check whether all alerts displayed.
+D) set commodity, clik on add and check alerts.
+e) set upper limit, clik on add and check alerts.
+f) set lower limit&gt;upperlimit clik on add and check alerts.
+g) set lower limit&lt;upperlimit clik on add and check alerts.</t>
+  </si>
+  <si>
+    <t>Error messages displayed correcly</t>
+  </si>
+  <si>
+    <t>AddCommodity_TC001</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a) Launch and login applcation as Global admin
+b) Goto commodities and Click on add new commodity button.
+C) Set Commodity name, upper limit, lower limit and pounds. 
+d) click on save.
+e) Customize Commodity webtable with required columns.
+f) Search for record and check if details dispalyed corrrect.
+g) Select record and click on delete button.
+h) check whether record deleted successfully.</t>
+  </si>
+  <si>
+    <t>Commodity added and deleted successfully</t>
+  </si>
+  <si>
+    <t>EditCommodity_TC002</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a) Launch and login applcation as Global admin
+b) Goto commodities and Click on add new commodity button.
+C) Set Commodity name, upper limit, lower limit and pounds. 
+d) click on save.
+e) Customize Commodity webtable with required columns.
+f) Search for record and check if details dispalyed corrrect.
+g) Select record and edit with valid details.
+h) check whether record edited successfully.</t>
+  </si>
+  <si>
+    <t>Commodity added and edited successfully</t>
+  </si>
+  <si>
+    <t>Invalid_ShipperContacts_TC001</t>
+  </si>
+  <si>
+    <t>Validate Shipper Contact.
+a) Launch and login applcation.
+b)Open Shipper Contact Panel.
+c) Click on add new Shipper Contact button.
+d) Fill Mandatory Details empty and click on Add.
+e) check alert messages displayed correct</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_ShipperContacts_TC001</t>
+  </si>
+  <si>
+    <t>Validate Shipper Contact.
+a) Launch and login applcation.
+b)Open Shipper Contact Panel.
+c) Click on add new Shipper Contact button.
+d) Fill Mandatory Details and click on Add.
+e) Verify Newly added Shipper contact in Grid.
+F) Check whether new load can be added using new shipper contact.</t>
+  </si>
+  <si>
+    <t>Shipper Contact added Successfully</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_InactiveShipperContacts_TC002</t>
+  </si>
+  <si>
+    <t>Validate Shipper Contact.
+a) Launch and login applcation.
+b)Open Shipper Contact Panel.
+c) Selct any active shipper contact from grid
+d) Edit the status as Inactive
+e) Check whether Shipper Contact inactivated successfully in loads</t>
+  </si>
+  <si>
+    <t>Shipper contact inactivated successfully</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_activeShipperContacts_TC003</t>
+  </si>
+  <si>
+    <t>Validate Shipper Contact.
+a) Launch and login applcation.
+b)Open Shipper Contact Panel.
+c) Selct any inactive shipper contact from grid
+d) Edit the status as Inactive
+e) Check whether Shipper Contact activated successfully in loads</t>
+  </si>
+  <si>
+    <t>Shipper contact activated successfully</t>
   </si>
 </sst>
 </file>
@@ -1617,16 +1617,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1652,128 +1652,128 @@
     </row>
     <row r="2" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1786,7 +1786,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -1802,7 +1802,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -1818,7 +1818,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -1834,7 +1834,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
@@ -1850,7 +1850,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>22</v>
@@ -1866,7 +1866,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>60</v>
@@ -1882,7 +1882,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
@@ -1898,7 +1898,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>66</v>
@@ -1911,10 +1911,10 @@
         <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
@@ -1927,10 +1927,10 @@
         <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
@@ -1946,7 +1946,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>60</v>
@@ -1962,7 +1962,7 @@
         <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>12</v>
@@ -1978,7 +1978,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>25</v>
@@ -1994,7 +1994,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>26</v>
@@ -2010,7 +2010,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>29</v>
@@ -2026,7 +2026,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>32</v>
@@ -2042,7 +2042,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>34</v>
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>37</v>
@@ -2074,7 +2074,7 @@
         <v>39</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>25</v>
@@ -2090,7 +2090,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>26</v>
@@ -2106,7 +2106,7 @@
         <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>29</v>
@@ -2122,7 +2122,7 @@
         <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>32</v>
@@ -2138,7 +2138,7 @@
         <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>34</v>
@@ -2154,7 +2154,7 @@
         <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>37</v>
@@ -2170,7 +2170,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>25</v>
@@ -2186,7 +2186,7 @@
         <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>26</v>
@@ -2202,7 +2202,7 @@
         <v>49</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>29</v>
@@ -2218,7 +2218,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>32</v>
@@ -2234,7 +2234,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>34</v>
@@ -2250,7 +2250,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>37</v>
@@ -2266,7 +2266,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
@@ -2282,7 +2282,7 @@
         <v>74</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>66</v>
@@ -2298,7 +2298,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>77</v>
@@ -2314,7 +2314,7 @@
         <v>78</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>77</v>
@@ -2330,7 +2330,7 @@
         <v>81</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>82</v>
@@ -2346,7 +2346,7 @@
         <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>83</v>
@@ -2362,7 +2362,7 @@
         <v>87</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>88</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>90</v>
@@ -2394,7 +2394,7 @@
         <v>91</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>92</v>
@@ -2408,7 +2408,7 @@
         <v>95</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>96</v>
@@ -2422,7 +2422,7 @@
         <v>95</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>101</v>
@@ -2436,7 +2436,7 @@
         <v>97</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>98</v>
@@ -2452,7 +2452,7 @@
         <v>102</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>103</v>
@@ -2462,97 +2462,97 @@
     </row>
     <row r="53" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>92</v>
@@ -2562,27 +2562,27 @@
     </row>
     <row r="60" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>96</v>
@@ -2592,27 +2592,27 @@
     </row>
     <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C62" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C63" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>103</v>
@@ -2622,55 +2622,55 @@
     </row>
     <row r="64" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C67" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>92</v>
@@ -2678,27 +2678,27 @@
     </row>
     <row r="68" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C68" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>96</v>
@@ -2708,27 +2708,27 @@
     </row>
     <row r="70" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>103</v>
@@ -2738,257 +2738,257 @@
     </row>
     <row r="72" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C72" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C73" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>66</v>
@@ -2996,48 +2996,47 @@
     </row>
     <row r="90" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F92"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="220">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -1224,6 +1224,9 @@
   </si>
   <si>
     <t>Shipper contact activated successfully</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1617,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3002,7 +3005,7 @@
         <v>211</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>212</v>
@@ -3016,7 +3019,7 @@
         <v>214</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>215</v>
@@ -3030,7 +3033,7 @@
         <v>217</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>218</v>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$92</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1620,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C89"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,7 +2381,7 @@
         <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>90</v>
@@ -3005,7 +3005,7 @@
         <v>211</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>212</v>
@@ -3019,7 +3019,7 @@
         <v>214</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>215</v>
@@ -3033,13 +3033,14 @@
         <v>217</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F92"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="219">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -1224,9 +1224,6 @@
   </si>
   <si>
     <t>Shipper contact activated successfully</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1620,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>90</v>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="220">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -1224,6 +1224,9 @@
   </si>
   <si>
     <t>Shipper contact activated successfully</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1621,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C92"/>
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,7 +1661,7 @@
         <v>180</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>181</v>
@@ -1674,7 +1677,7 @@
         <v>183</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>184</v>
@@ -1690,7 +1693,7 @@
         <v>186</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>187</v>
@@ -1706,7 +1709,7 @@
         <v>189</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>190</v>
@@ -1722,7 +1725,7 @@
         <v>192</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>181</v>
@@ -1738,7 +1741,7 @@
         <v>194</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>181</v>
@@ -1754,7 +1757,7 @@
         <v>196</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>181</v>
@@ -1770,7 +1773,7 @@
         <v>198</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>181</v>
@@ -1786,7 +1789,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -1802,7 +1805,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -1818,7 +1821,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -1834,7 +1837,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
@@ -1850,7 +1853,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>22</v>
@@ -1866,7 +1869,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>60</v>
@@ -1882,7 +1885,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
@@ -1898,7 +1901,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>66</v>
@@ -1914,7 +1917,7 @@
         <v>177</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
@@ -1930,7 +1933,7 @@
         <v>178</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
@@ -1946,7 +1949,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>60</v>
@@ -1962,7 +1965,7 @@
         <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>12</v>
@@ -1978,7 +1981,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>25</v>
@@ -1994,7 +1997,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>26</v>
@@ -2010,7 +2013,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>29</v>
@@ -2026,7 +2029,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>32</v>
@@ -2042,7 +2045,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>34</v>
@@ -2058,7 +2061,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>37</v>
@@ -2074,7 +2077,7 @@
         <v>39</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>25</v>
@@ -2090,7 +2093,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>26</v>
@@ -2106,7 +2109,7 @@
         <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>29</v>
@@ -2122,7 +2125,7 @@
         <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>32</v>
@@ -2138,7 +2141,7 @@
         <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>34</v>
@@ -2154,7 +2157,7 @@
         <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>37</v>
@@ -2170,7 +2173,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>25</v>
@@ -2186,7 +2189,7 @@
         <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>26</v>
@@ -2202,7 +2205,7 @@
         <v>49</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>29</v>
@@ -2218,7 +2221,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>32</v>
@@ -2234,7 +2237,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>34</v>
@@ -2250,7 +2253,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>37</v>
@@ -2266,7 +2269,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
@@ -2282,7 +2285,7 @@
         <v>74</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>66</v>
@@ -2298,7 +2301,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>77</v>
@@ -2314,7 +2317,7 @@
         <v>78</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>77</v>
@@ -2330,7 +2333,7 @@
         <v>81</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>82</v>
@@ -2346,7 +2349,7 @@
         <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>83</v>
@@ -2362,7 +2365,7 @@
         <v>87</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>88</v>
@@ -2378,7 +2381,7 @@
         <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>90</v>
@@ -2394,7 +2397,7 @@
         <v>91</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>92</v>
@@ -2408,7 +2411,7 @@
         <v>95</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>96</v>
@@ -2422,7 +2425,7 @@
         <v>95</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>101</v>
@@ -2436,7 +2439,7 @@
         <v>97</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>98</v>
@@ -2452,7 +2455,7 @@
         <v>102</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>103</v>
@@ -2468,7 +2471,7 @@
         <v>106</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>107</v>
@@ -2482,7 +2485,7 @@
         <v>110</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>107</v>
@@ -2496,7 +2499,7 @@
         <v>111</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>112</v>
@@ -2510,7 +2513,7 @@
         <v>115</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>114</v>
@@ -2524,7 +2527,7 @@
         <v>118</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>117</v>
@@ -2538,7 +2541,7 @@
         <v>121</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>117</v>
@@ -2552,7 +2555,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>92</v>
@@ -2568,7 +2571,7 @@
         <v>125</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>107</v>
@@ -2582,7 +2585,7 @@
         <v>126</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>96</v>
@@ -2598,7 +2601,7 @@
         <v>128</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>107</v>
@@ -2612,7 +2615,7 @@
         <v>130</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>103</v>
@@ -2628,7 +2631,7 @@
         <v>134</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>112</v>
@@ -2642,7 +2645,7 @@
         <v>135</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>114</v>
@@ -2656,7 +2659,7 @@
         <v>137</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>117</v>
@@ -2670,7 +2673,7 @@
         <v>138</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>92</v>
@@ -2684,7 +2687,7 @@
         <v>140</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>107</v>
@@ -2698,7 +2701,7 @@
         <v>143</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>96</v>
@@ -2714,7 +2717,7 @@
         <v>147</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>107</v>
@@ -2728,7 +2731,7 @@
         <v>146</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>103</v>
@@ -2744,7 +2747,7 @@
         <v>148</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>112</v>
@@ -2758,7 +2761,7 @@
         <v>150</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>114</v>
@@ -2772,7 +2775,7 @@
         <v>137</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>117</v>
@@ -2786,7 +2789,7 @@
         <v>154</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>155</v>
@@ -2800,7 +2803,7 @@
         <v>157</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>155</v>
@@ -2814,7 +2817,7 @@
         <v>159</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>155</v>
@@ -2828,7 +2831,7 @@
         <v>161</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>155</v>
@@ -2842,7 +2845,7 @@
         <v>163</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>155</v>
@@ -2856,7 +2859,7 @@
         <v>165</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>155</v>
@@ -2870,7 +2873,7 @@
         <v>167</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>168</v>
@@ -2884,7 +2887,7 @@
         <v>170</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>171</v>
@@ -2898,7 +2901,7 @@
         <v>173</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>174</v>
@@ -2912,7 +2915,7 @@
         <v>173</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>174</v>
@@ -2926,7 +2929,7 @@
         <v>173</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>174</v>
@@ -2940,7 +2943,7 @@
         <v>200</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>201</v>
@@ -2956,7 +2959,7 @@
         <v>203</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>204</v>
@@ -2972,7 +2975,7 @@
         <v>206</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>207</v>
@@ -2988,7 +2991,7 @@
         <v>209</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>66</v>
@@ -3002,7 +3005,7 @@
         <v>211</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>212</v>
@@ -3030,7 +3033,7 @@
         <v>217</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>218</v>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="219">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -563,9 +563,6 @@
     <t>ShipperUser_WithDrawDeal_TC005</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate whether a shipper user can edit deal in Opportunity.
 a) Enter valid user id and Password and click Login(Shipper user).
 b)Create deal and share with carrier user.
@@ -1226,7 +1223,7 @@
     <t>Shipper contact activated successfully</t>
   </si>
   <si>
-    <t>No</t>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1618,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+      <selection activeCell="C2" sqref="C2:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,128 +1652,128 @@
     </row>
     <row r="2" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1789,7 +1786,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -1805,7 +1802,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -1821,7 +1818,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -1837,7 +1834,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
@@ -1853,7 +1850,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>22</v>
@@ -1869,7 +1866,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>60</v>
@@ -1885,7 +1882,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
@@ -1901,7 +1898,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>66</v>
@@ -1914,10 +1911,10 @@
         <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
@@ -1930,10 +1927,10 @@
         <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
@@ -1949,7 +1946,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>60</v>
@@ -1965,7 +1962,7 @@
         <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>12</v>
@@ -1981,7 +1978,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>25</v>
@@ -1997,7 +1994,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>26</v>
@@ -2013,7 +2010,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>29</v>
@@ -2029,7 +2026,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>32</v>
@@ -2045,7 +2042,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>34</v>
@@ -2061,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>37</v>
@@ -2077,7 +2074,7 @@
         <v>39</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>25</v>
@@ -2093,7 +2090,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>26</v>
@@ -2109,7 +2106,7 @@
         <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>29</v>
@@ -2125,7 +2122,7 @@
         <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>32</v>
@@ -2141,7 +2138,7 @@
         <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>34</v>
@@ -2157,7 +2154,7 @@
         <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>37</v>
@@ -2173,7 +2170,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>25</v>
@@ -2189,7 +2186,7 @@
         <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>26</v>
@@ -2205,7 +2202,7 @@
         <v>49</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>29</v>
@@ -2221,7 +2218,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>32</v>
@@ -2237,7 +2234,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>34</v>
@@ -2253,7 +2250,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>37</v>
@@ -2269,7 +2266,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
@@ -2285,7 +2282,7 @@
         <v>74</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>66</v>
@@ -2301,7 +2298,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>77</v>
@@ -2317,7 +2314,7 @@
         <v>78</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>77</v>
@@ -2333,7 +2330,7 @@
         <v>81</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>82</v>
@@ -2349,7 +2346,7 @@
         <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>83</v>
@@ -2365,7 +2362,7 @@
         <v>87</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>88</v>
@@ -2381,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>90</v>
@@ -2397,7 +2394,7 @@
         <v>91</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>92</v>
@@ -2411,7 +2408,7 @@
         <v>95</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>96</v>
@@ -2425,7 +2422,7 @@
         <v>95</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>101</v>
@@ -2439,7 +2436,7 @@
         <v>97</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>98</v>
@@ -2455,7 +2452,7 @@
         <v>102</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>103</v>
@@ -2465,97 +2462,97 @@
     </row>
     <row r="53" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C59" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>92</v>
@@ -2565,27 +2562,27 @@
     </row>
     <row r="60" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C60" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>96</v>
@@ -2595,27 +2592,27 @@
     </row>
     <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>103</v>
@@ -2625,55 +2622,55 @@
     </row>
     <row r="64" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="C66" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>92</v>
@@ -2681,27 +2678,27 @@
     </row>
     <row r="68" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>96</v>
@@ -2711,27 +2708,27 @@
     </row>
     <row r="70" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C71" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>103</v>
@@ -2741,257 +2738,257 @@
     </row>
     <row r="72" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C76" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C77" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="C78" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="C79" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="C80" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="C81" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C82" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="C89" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>66</v>
@@ -2999,44 +2996,44 @@
     </row>
     <row r="90" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="220">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -1223,7 +1223,10 @@
     <t>Shipper contact activated successfully</t>
   </si>
   <si>
-    <t>High</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1617,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C92"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,7 +2381,7 @@
         <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>90</v>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="206">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -102,6 +102,9 @@
 19)Leave the chat</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>User_TC010</t>
   </si>
   <si>
@@ -998,143 +1001,6 @@
 i.) Edit status as Active and create load with new shipper.</t>
   </si>
   <si>
-    <t>User_TC001</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions.
-1) Launch application and login as global admin.
-2) Click on Users Menu and customize columns
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon Resend Invitation and Check if invitation sent again.</t>
-  </si>
-  <si>
-    <t>Invitation sent successfully</t>
-  </si>
-  <si>
-    <t>User_TC002</t>
-  </si>
-  <si>
-    <t>To validate cancel invitation on following conditions.
-1) Launch application and login as global admin.
-2) Click on Users Menu and customize columns
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
-6) Select any one value from Carrier Drop Down field.
-7) Click on cancel Invite button and check cancelled successfully.</t>
-  </si>
-  <si>
-    <t>Invitation Cancelled successfully</t>
-  </si>
-  <si>
-    <t>User_TC004</t>
-  </si>
-  <si>
-    <t>Validate Forgot password based on following conditions:
-1. Launch application and Set UserName.
-2. Clickon Forgot Password.
-3. Verify email and reset password.
-4. Login with new password.
-5. Check whether user is able to login with new password.</t>
-  </si>
-  <si>
-    <t>Password reset successfully</t>
-  </si>
-  <si>
-    <t>User_TC005</t>
-  </si>
-  <si>
-    <t>Validate delete any  user based on following conditions:
-1. Launch application .
-2. Login as global admin.
-3. Go to Users and search accepted user(except global admin)
-4. Clickon delete.
-5. Check whether deleted user exist.</t>
-  </si>
-  <si>
-    <t>User deleted successfully</t>
-  </si>
-  <si>
-    <t>User_TC006</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions
-1) Launch application and login as global admin.
-2) Click on Users Menu and customize columns
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select role shipper user.
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon Resend Invitation and Check if invitation sent again.
-9.) CLick on cancel invite and check if invitation cancelled</t>
-  </si>
-  <si>
-    <t>User_TC007</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions
-1) Launch application and login as shipper  admin.
-2) Click on Users Menu and customize columns
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select role shipper user.
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon Resend Invitation and Check if invitation sent again.
-9.) CLick on cancel invite and check if invitation cancelled</t>
-  </si>
-  <si>
-    <t>User_TC008</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions
-1) Launch application and login as shipper  admin.
-2) Click on Users Menu and customize columns
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select role shipper admin.
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon Resend Invitation and Check if invitation sent again.
-9.) CLick on cancel invite and check if invitation cancelled</t>
-  </si>
-  <si>
-    <t>User_TC009</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions
-1) Launch application and login as Carrier.
-2) Click on Users Menu and customize columns
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select role shipper admin.
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon Resend Invitation and Check if invitation sent again.
-9.) CLick on cancel invite and check if invitation cancelled</t>
-  </si>
-  <si>
-    <t>Invalid_AddCommodity_TC001</t>
-  </si>
-  <si>
-    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
-a) Launch and login applcation as Global admin
-b) Goto commodities and Click on add new commodity button.
-C) click on add and check whether all alerts displayed.
-D) set commodity, clik on add and check alerts.
-e) set upper limit, clik on add and check alerts.
-f) set lower limit&gt;upperlimit clik on add and check alerts.
-g) set lower limit&lt;upperlimit clik on add and check alerts.</t>
-  </si>
-  <si>
-    <t>Error messages displayed correcly</t>
-  </si>
-  <si>
     <t>AddCommodity_TC001</t>
   </si>
   <si>
@@ -1169,6 +1035,28 @@
     <t>Commodity added and edited successfully</t>
   </si>
   <si>
+    <t>Invalid_AddCommodity_TC001</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a) Launch and login applcation as Global admin
+b) Goto commodities and Click on add new commodity button.
+C) click on add and check whether all alerts displayed.
+D) set commodity, clik on add and check alerts.
+e) set upper limit, clik on add and check alerts.
+f) set lower limit&gt;upperlimit clik on add and check alerts.
+g) set lower limit&lt;upperlimit clik on add and check alerts.</t>
+  </si>
+  <si>
+    <t>Error messages displayed correcly</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_ShipperContacts_TC001</t>
+  </si>
+  <si>
     <t>Invalid_ShipperContacts_TC001</t>
   </si>
   <si>
@@ -1180,7 +1068,10 @@
 e) check alert messages displayed correct</t>
   </si>
   <si>
-    <t>GlobalAdmin_ShipperContacts_TC001</t>
+    <t>Shipper Contact added Successfully</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_InactiveShipperContacts_TC002</t>
   </si>
   <si>
     <t>Validate Shipper Contact.
@@ -1192,10 +1083,18 @@
 F) Check whether new load can be added using new shipper contact.</t>
   </si>
   <si>
-    <t>Shipper Contact added Successfully</t>
-  </si>
-  <si>
-    <t>GlobalAdmin_InactiveShipperContacts_TC002</t>
+    <t>Shipper contact inactivated successfully</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_activeShipperContacts_TC003</t>
+  </si>
+  <si>
+    <t>Validate Shipper Contact.
+a) Launch and login applcation.
+b)Open Shipper Contact Panel.
+c) Selct any inactive shipper contact from grid
+d) Edit the status as Inactive
+e) Check whether Shipper Contact activated successfully in loads</t>
   </si>
   <si>
     <t>Validate Shipper Contact.
@@ -1206,27 +1105,39 @@
 e) Check whether Shipper Contact inactivated successfully in loads</t>
   </si>
   <si>
-    <t>Shipper contact inactivated successfully</t>
-  </si>
-  <si>
-    <t>GlobalAdmin_activeShipperContacts_TC003</t>
-  </si>
-  <si>
-    <t>Validate Shipper Contact.
+    <t>Shipper contact activated successfully</t>
+  </si>
+  <si>
+    <t>Settings_TC001</t>
+  </si>
+  <si>
+    <t>Validate Change Password.
 a) Launch and login applcation.
-b)Open Shipper Contact Panel.
-c) Selct any inactive shipper contact from grid
-d) Edit the status as Inactive
-e) Check whether Shipper Contact activated successfully in loads</t>
-  </si>
-  <si>
-    <t>Shipper contact activated successfully</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
+b)Open Settings Panel.
+c) Click on Change Password button.
+d) Fill Mandatory Details and click on Submit.
+e) Verify Newly change password by Re-Login.</t>
+  </si>
+  <si>
+    <t>Password Change Successfully</t>
+  </si>
+  <si>
+    <t>Invalid_Login_TC001</t>
+  </si>
+  <si>
+    <t>Validate whether the user is able to login application with invalid details
+a) Launch application.
+b)set username and password empty and click login
+c) check whether user able to login application.
+d)set valid username and password empty and click login
+e) check whether user able to login application.
+f)set empty username and invalid password  and click login
+g) check whether user able to login application.
+h)set invalid username and password  and click login
+i) check whether user able to login application.</t>
+  </si>
+  <si>
+    <t>Unable to login application</t>
   </si>
 </sst>
 </file>
@@ -1618,18 +1529,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1653,1394 +1564,1297 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="5" t="s">
+    </row>
+    <row r="58" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+        <v>93</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>160</v>
+        <v>185</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>162</v>
+        <v>179</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>164</v>
+        <v>182</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>166</v>
+        <v>190</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>169</v>
+        <v>189</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F92"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$42</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="229">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -1138,6 +1138,144 @@
   </si>
   <si>
     <t>Unable to login application</t>
+  </si>
+  <si>
+    <t>User_TC001</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions.
+1) Launch application and login as global admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.</t>
+  </si>
+  <si>
+    <t>Invitation sent successfully</t>
+  </si>
+  <si>
+    <t>User_TC002</t>
+  </si>
+  <si>
+    <t>To validate cancel invitation on following conditions.
+1) Launch application and login as global admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
+7) Click on cancel Invite button and check cancelled successfully.</t>
+  </si>
+  <si>
+    <t>Invitation Cancelled successfully</t>
+  </si>
+  <si>
+    <t>User_TC003</t>
+  </si>
+  <si>
+    <t>To validate invite via email for Shipper Admin  based on following conditions
+1) Launch application and login as global admin.
+2) Click on Users Menu.
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email)
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Accet email invitation and check if invitation acceted.</t>
+  </si>
+  <si>
+    <t>Invitation accepted successfully</t>
+  </si>
+  <si>
+    <t>User_TC004</t>
+  </si>
+  <si>
+    <t>Validate Forgot password based on following conditions:
+1. Launch application and Set UserName.
+2. Clickon Forgot Password.
+3. Verify email and reset password.
+4. Login with new password.
+5. Check whether user is able to login with new password.</t>
+  </si>
+  <si>
+    <t>Password reset successfully</t>
+  </si>
+  <si>
+    <t>User_TC005</t>
+  </si>
+  <si>
+    <t>Validate delete any  user based on following conditions:
+1. Launch application .
+2. Login as global admin.
+3. Go to Users and search accepted user(except global admin)
+4. Clickon delete.
+5. Check whether deleted user exist.</t>
+  </si>
+  <si>
+    <t>User deleted successfully</t>
+  </si>
+  <si>
+    <t>User_TC006</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as global admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper user.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC007</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as shipper  admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper user.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC008</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as shipper  admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper admin.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC009</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as Carrier.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper admin.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
   </si>
 </sst>
 </file>
@@ -1529,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,841 +1702,857 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>212</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>221</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>223</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>225</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>227</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>178</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>121</v>
+        <v>90</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>117</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>104</v>
@@ -2406,453 +2560,613 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>188</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="3" t="s">
+    <row r="59" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="3" t="s">
+    <row r="60" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="C72" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="C73" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="74" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C74" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>191</v>
+        <v>160</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>194</v>
+        <v>162</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>198</v>
+        <v>164</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>197</v>
+        <v>166</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>201</v>
+        <v>169</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+        <v>171</v>
+      </c>
     </row>
     <row r="86" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="C97" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -102,9 +102,6 @@
 19)Leave the chat</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>User_TC010</t>
   </si>
   <si>
@@ -1276,6 +1273,9 @@
 7) Click on Invite button and check invitation email sent successfully.
 8.) Clickon Resend Invitation and Check if invitation sent again.
 9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1670,7 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C97"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,208 +1704,208 @@
     </row>
     <row r="2" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1918,7 +1918,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
@@ -1934,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
@@ -1944,45 +1944,45 @@
     </row>
     <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>12</v>
@@ -1992,29 +1992,29 @@
     </row>
     <row r="20" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
@@ -2024,13 +2024,13 @@
     </row>
     <row r="22" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
@@ -2040,29 +2040,29 @@
     </row>
     <row r="23" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>12</v>
@@ -2072,288 +2072,288 @@
     </row>
     <row r="25" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2366,7 +2366,7 @@
         <v>15</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>13</v>
@@ -2376,794 +2376,794 @@
     </row>
     <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C44" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C48" s="3" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C57" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C62" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C63" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C72" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C74" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C79" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C80" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="C81" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="C82" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="C83" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="C85" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="C92" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C95" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
     <row r="97" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -1669,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,7 +2382,7 @@
         <v>74</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>66</v>

--- a/TestData/DriverDetailedRegression.xlsx
+++ b/TestData/DriverDetailedRegression.xlsx
@@ -1669,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,7 +3144,7 @@
         <v>200</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>201</v>
